--- a/143B-GOT-DKO_characterization/FCCP_rescue2/merged2.xlsx
+++ b/143B-GOT-DKO_characterization/FCCP_rescue2/merged2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Desktop/FCCP_rescue2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/143B-GOT-DKO_characterization/FCCP_rescue2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD080F5-7FEA-D547-A955-184775B0DD78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9389D374-29C8-234C-8344-240BE8A5725D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -376,7 +376,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1219,7 +1219,7 @@
         <v>2255</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N13:N21" si="2">(J14/2)/$J$8</f>
+        <f t="shared" ref="N14:N20" si="2">(J14/2)/$J$8</f>
         <v>50.894888518125285</v>
       </c>
       <c r="O14">
@@ -1938,7 +1938,7 @@
         <f>AVERAGE(J37:J39)</f>
         <v>54940</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="6">
         <f t="shared" ref="K40" si="12">AVERAGE(K37:K39)</f>
         <v>21.373333333333335</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>2.802</v>
       </c>
       <c r="N44">
-        <f t="shared" ref="N44:N45" si="15">J44/$J$33</f>
+        <f t="shared" ref="N44" si="15">J44/$J$33</f>
         <v>6.8675362851368735</v>
       </c>
       <c r="O44" s="6">
@@ -2144,7 +2144,7 @@
         <f>AVERAGE(J43:J45)</f>
         <v>118733.33333333333</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="6">
         <f t="shared" ref="K46" si="17">AVERAGE(K43:K45)</f>
         <v>20.763333333333332</v>
       </c>
@@ -2350,7 +2350,7 @@
         <f>AVERAGE(J49:J51)</f>
         <v>32370</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="6">
         <f t="shared" ref="K52" si="21">AVERAGE(K49:K51)</f>
         <v>21.186666666666667</v>
       </c>
@@ -2556,7 +2556,7 @@
         <f>AVERAGE(J55:J57)</f>
         <v>114533.33333333333</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="6">
         <f t="shared" ref="K58" si="25">AVERAGE(K55:K57)</f>
         <v>20.67</v>
       </c>
@@ -2762,7 +2762,7 @@
         <f>AVERAGE(J61:J63)</f>
         <v>27030</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="6">
         <f t="shared" ref="K64" si="29">AVERAGE(K61:K63)</f>
         <v>21.006666666666664</v>
       </c>
@@ -2968,7 +2968,7 @@
         <f>AVERAGE(J67:J69)</f>
         <v>117800</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="6">
         <f t="shared" ref="K70" si="33">AVERAGE(K67:K69)</f>
         <v>20.686666666666667</v>
       </c>
@@ -2994,7 +2994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E651803-7D1F-DB4C-8381-DBE4DD0A9A53}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
